--- a/fw-ig/minimal-demo-r4/branch/dev/StructureDefinition-r4-patient.xlsx
+++ b/fw-ig/minimal-demo-r4/branch/dev/StructureDefinition-r4-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-11T06:51:44+00:00</t>
+    <t>2022-06-11T07:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
